--- a/biology/Zoologie/Galeus_antillensis/Galeus_antillensis.xlsx
+++ b/biology/Zoologie/Galeus_antillensis/Galeus_antillensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Galeus antillensis est une espèce de requins. Il parfois connu sous le nom de Chien de mer des Antilles[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Galeus antillensis est une espèce de requins. Il parfois connu sous le nom de Chien de mer des Antilles.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce de requin a été observé dans le détroit de Floride, ainsi que dans les eaux entourant la Jamaïque, l’Hispaniola, Porto Rico, les Îles-sous-le-vent et la Martinique[2]. Il partage son aire de répartition avec le Chien de mer de Springer[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce de requin a été observé dans le détroit de Floride, ainsi que dans les eaux entourant la Jamaïque, l’Hispaniola, Porto Rico, les Îles-sous-le-vent et la Martinique. Il partage son aire de répartition avec le Chien de mer de Springer.
 </t>
         </is>
       </c>
